--- a/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>CRGY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,154 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1477000</v>
+        <v>598900</v>
       </c>
       <c r="E8" s="3">
-        <v>1254100</v>
+        <v>463300</v>
       </c>
       <c r="F8" s="3">
+        <v>365700</v>
+      </c>
+      <c r="G8" s="3">
         <v>648000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>754200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>311400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>609700</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F9" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>286000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>491300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>216500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>867300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1245400</v>
-      </c>
-      <c r="F10" s="3">
+        <v>379700</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>362000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>262900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>94900</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +824,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F12" s="3">
         <v>100</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,66 +886,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>247200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>234000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>312800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>300300</v>
-      </c>
-      <c r="F15" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>160100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>372300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>147800</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>993200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>924000</v>
-      </c>
-      <c r="F17" s="3">
+        <v>336100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
         <v>459500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1127800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>601500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>483800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>330100</v>
-      </c>
-      <c r="F18" s="3">
+        <v>262800</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>188500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-373600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-290100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,42 +1041,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1002800</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3">
+        <v>-674000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>-602800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>195600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>365800</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-312200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1051,92 +1088,101 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>194300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>223600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>47300</v>
-      </c>
-      <c r="F22" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>24800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-720000</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="D23" s="3">
+        <v>-427700</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
         <v>-439100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-216100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>54600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+        <v>-21700</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1144,8 +1190,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-678100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="D26" s="3">
+        <v>-406000</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
         <v>-439100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-216100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>54600</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-146800</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="D27" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
         <v>-425200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-118600</v>
-      </c>
       <c r="H27" s="3">
+        <v>46700</v>
+      </c>
+      <c r="I27" s="3">
         <v>84600</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1002800</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="3">
+        <v>674000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>602800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-195600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-365800</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-146800</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="D33" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
         <v>-425200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-118600</v>
-      </c>
       <c r="H33" s="3">
+        <v>46700</v>
+      </c>
+      <c r="I33" s="3">
         <v>84600</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-146800</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="D35" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3">
         <v>-425200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-118600</v>
-      </c>
       <c r="H35" s="3">
+        <v>46700</v>
+      </c>
+      <c r="I35" s="3">
         <v>84600</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,19 +1618,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E41" s="3">
         <v>128600</v>
       </c>
-      <c r="E41" s="3">
-        <v>66600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>74500</v>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,19 +1680,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>321900</v>
+        <v>513300</v>
       </c>
       <c r="E43" s="3">
-        <v>279100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>160300</v>
+        <v>342200</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,19 +1744,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
-        <v>21300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>16700</v>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1677,19 +1776,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>649100</v>
+      </c>
+      <c r="E46" s="3">
         <v>479600</v>
       </c>
-      <c r="E46" s="3">
-        <v>367000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>251500</v>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1706,16 +1808,19 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>20100</v>
       </c>
       <c r="E47" s="3">
-        <v>4900</v>
+        <v>15400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1735,19 +1840,22 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17548400</v>
+        <v>5387700</v>
       </c>
       <c r="E48" s="3">
-        <v>4566900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3486700</v>
+        <v>4557400</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1764,16 +1872,19 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>76800</v>
       </c>
       <c r="E49" s="3">
-        <v>106500</v>
+        <v>76600</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,19 +1968,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30800</v>
+        <v>40800</v>
       </c>
       <c r="E52" s="3">
-        <v>23200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>22300</v>
+        <v>28500</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,19 +2032,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6174500</v>
+      </c>
+      <c r="E54" s="3">
         <v>5157500</v>
       </c>
-      <c r="E54" s="3">
-        <v>5068500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3760500</v>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,19 +2094,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>337900</v>
+        <v>100100</v>
       </c>
       <c r="E57" s="3">
-        <v>359300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>34400</v>
+        <v>87300</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1993,48 +2124,54 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>276600</v>
+        <v>1132100</v>
       </c>
       <c r="E59" s="3">
-        <v>430100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>337400</v>
+        <v>527200</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2051,19 +2188,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1233900</v>
+      </c>
+      <c r="E60" s="3">
         <v>616100</v>
       </c>
-      <c r="E60" s="3">
-        <v>789400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>371800</v>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2080,19 +2220,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1030400</v>
+        <v>1630400</v>
       </c>
       <c r="E61" s="3">
-        <v>883500</v>
+        <v>1033900</v>
       </c>
       <c r="F61" s="3">
-        <v>836100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2109,19 +2252,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>405200</v>
+        <v>702200</v>
       </c>
       <c r="E62" s="3">
-        <v>577900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>198100</v>
+        <v>487800</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,19 +2380,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2150200</v>
+        <v>5756100</v>
       </c>
       <c r="E66" s="3">
-        <v>4469300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1422800</v>
+        <v>4475300</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,16 +2554,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-104400</v>
       </c>
       <c r="E72" s="3">
-        <v>-39300</v>
+        <v>-19400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,19 +2682,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>418400</v>
+      </c>
+      <c r="E76" s="3">
         <v>682200</v>
       </c>
-      <c r="E76" s="3">
-        <v>599300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2337700</v>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-146800</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="D81" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="3">
         <v>-425200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-118600</v>
-      </c>
       <c r="H81" s="3">
+        <v>46700</v>
+      </c>
+      <c r="I81" s="3">
         <v>84600</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,13 +2831,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>312800</v>
+        <v>99000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2647,12 +2846,12 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>372300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,13 +3021,16 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>233100</v>
+        <v>137300</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2821,12 +3038,12 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>411000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,13 +3069,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-155600</v>
+        <v>-93800</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2863,12 +3084,12 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-126200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,13 +3163,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-244600</v>
+        <v>-713400</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2950,12 +3180,12 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-124900</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,13 +3211,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,13 +3337,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>105100</v>
+        <v>561500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -3108,12 +3354,12 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>-272100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,13 +3401,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>93700</v>
+        <v>-14600</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
@@ -3166,12 +3418,12 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>14000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>CRGY</t>
   </si>
@@ -758,8 +758,8 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="3">
+        <v>8700</v>
       </c>
       <c r="G9" s="3">
         <v>286000</v>
@@ -790,8 +790,8 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="F10" s="3">
+        <v>357000</v>
       </c>
       <c r="G10" s="3">
         <v>362000</v>
@@ -836,8 +836,8 @@
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+      <c r="F12" s="3">
+        <v>1300</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -900,8 +900,8 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>-2700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -932,8 +932,8 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>300300</v>
       </c>
       <c r="G15" s="3">
         <v>160100</v>
@@ -975,8 +975,8 @@
       <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+      <c r="F17" s="3">
+        <v>924000</v>
       </c>
       <c r="G17" s="3">
         <v>459500</v>
@@ -1007,8 +1007,8 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="F18" s="3">
+        <v>-558300</v>
       </c>
       <c r="G18" s="3">
         <v>188500</v>
@@ -1053,8 +1053,8 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>-114400</v>
       </c>
       <c r="G20" s="3">
         <v>-602800</v>
@@ -1117,8 +1117,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>47300</v>
       </c>
       <c r="G22" s="3">
         <v>24800</v>
@@ -1149,8 +1149,8 @@
       <c r="E23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+      <c r="F23" s="3">
+        <v>-720000</v>
       </c>
       <c r="G23" s="3">
         <v>-439100</v>
@@ -1181,8 +1181,8 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>-41900</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1245,8 +1245,8 @@
       <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+      <c r="F26" s="3">
+        <v>-678100</v>
       </c>
       <c r="G26" s="3">
         <v>-439100</v>
@@ -1277,8 +1277,8 @@
       <c r="E27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+      <c r="F27" s="3">
+        <v>-676600</v>
       </c>
       <c r="G27" s="3">
         <v>-425200</v>
@@ -1437,8 +1437,8 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>114400</v>
       </c>
       <c r="G32" s="3">
         <v>602800</v>
@@ -1469,8 +1469,8 @@
       <c r="E33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+      <c r="F33" s="3">
+        <v>-676600</v>
       </c>
       <c r="G33" s="3">
         <v>-425200</v>
@@ -1533,8 +1533,8 @@
       <c r="E35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+      <c r="F35" s="3">
+        <v>-676600</v>
       </c>
       <c r="G35" s="3">
         <v>-425200</v>
@@ -1630,11 +1630,11 @@
       <c r="E41" s="3">
         <v>128600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="3">
+        <v>66600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>74500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1694,11 +1694,11 @@
       <c r="E43" s="3">
         <v>342200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>279100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>160300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1758,11 +1758,11 @@
       <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>21300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>16700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1790,11 +1790,11 @@
       <c r="E46" s="3">
         <v>479600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="F46" s="3">
+        <v>367000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>251500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1822,8 +1822,8 @@
       <c r="E47" s="3">
         <v>15400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>4900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1854,11 +1854,11 @@
       <c r="E48" s="3">
         <v>4557400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>4566900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3486700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1886,8 +1886,8 @@
       <c r="E49" s="3">
         <v>76600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>106500</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1982,11 +1982,11 @@
       <c r="E52" s="3">
         <v>28500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>23200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>22300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2046,11 +2046,11 @@
       <c r="E54" s="3">
         <v>5157500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+      <c r="F54" s="3">
+        <v>5068500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3760500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2106,11 +2106,11 @@
       <c r="E57" s="3">
         <v>87300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>359300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>34400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2170,11 +2170,11 @@
       <c r="E59" s="3">
         <v>527200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>430100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>337400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2202,11 +2202,11 @@
       <c r="E60" s="3">
         <v>616100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="F60" s="3">
+        <v>789400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>371800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2235,10 +2235,10 @@
         <v>1033900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>883500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>836100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2266,11 +2266,11 @@
       <c r="E62" s="3">
         <v>487800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>577900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>198100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2394,11 +2394,11 @@
       <c r="E66" s="3">
         <v>4475300</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="F66" s="3">
+        <v>4469300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1422800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2568,8 +2568,8 @@
       <c r="E72" s="3">
         <v>-19400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+      <c r="F72" s="3">
+        <v>-39300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2696,11 +2696,11 @@
       <c r="E76" s="3">
         <v>682200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="F76" s="3">
+        <v>599300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2337700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2797,8 +2797,8 @@
       <c r="E81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+      <c r="F81" s="3">
+        <v>-676600</v>
       </c>
       <c r="G81" s="3">
         <v>-425200</v>

--- a/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>CRGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>908400</v>
+      </c>
+      <c r="E8" s="3">
         <v>598900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>463300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>365700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>648000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>754200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>311400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>255700</v>
+      </c>
+      <c r="E9" s="3">
         <v>219200</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>286000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>491300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>216500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>652700</v>
+      </c>
+      <c r="E10" s="3">
         <v>379700</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>357000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>362000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>262900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>94900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,61 +920,67 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>247200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>234000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E15" s="3">
         <v>99000</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>300300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>160100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>372300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>147800</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>408600</v>
+      </c>
+      <c r="E17" s="3">
         <v>336100</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
         <v>924000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>459500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1127800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>601500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>499800</v>
+      </c>
+      <c r="E18" s="3">
         <v>262800</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-558300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>188500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-373600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-290100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,159 +1075,172 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-674000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>-114400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-602800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>195600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>365800</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>456200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-312200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>194300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>223600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E22" s="3">
         <v>16500</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>47300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>299700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-427700</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
         <v>-720000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-439100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-216100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>54600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-21700</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>-41900</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-406000</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
         <v>-678100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-439100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-216100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>54600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-85000</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
         <v>-676600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-425200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>46700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>84600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E32" s="3">
         <v>674000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>114400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>602800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-195600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-365800</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-85000</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
         <v>-676600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-425200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>46700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>84600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-85000</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3">
         <v>-676600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-425200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>46700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>84600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,26 +1705,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E41" s="3">
         <v>112500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>128600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,26 +1773,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E43" s="3">
         <v>513300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>342200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>279100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>160300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,26 +1843,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E45" s="3">
         <v>23200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,26 +1878,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E46" s="3">
         <v>649100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>479600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>367000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>251500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,23 +1913,26 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E47" s="3">
         <v>20100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>15400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4900</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,26 +1948,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5463000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5387700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4557400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4566900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3486700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1884,14 +1995,14 @@
         <v>76800</v>
       </c>
       <c r="E49" s="3">
+        <v>76800</v>
+      </c>
+      <c r="F49" s="3">
         <v>76600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>106500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,26 +2088,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E52" s="3">
         <v>40800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,26 +2158,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6273700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6174500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5157500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5068500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3760500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,26 +2225,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E57" s="3">
         <v>100100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>87300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>359300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,20 +2258,23 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2153,32 +2287,35 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1140500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1132100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>527200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>430100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>337400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,26 +2328,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1290600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1233900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>616100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>789400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>371800</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,26 +2363,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1519900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1630400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1033900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>883500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>836100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2255,26 +2398,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>674500</v>
+      </c>
+      <c r="E62" s="3">
         <v>702200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>487800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>577900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>198100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,26 +2538,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5658400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5756100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4475300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4469300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1422800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,23 +2728,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-104400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,26 +2868,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>615300</v>
+      </c>
+      <c r="E76" s="3">
         <v>418400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>682200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>599300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2337700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-85000</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="3">
         <v>-676600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-425200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>46700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>84600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,29 +3030,30 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E83" s="3">
         <v>99000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>372300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,29 +3238,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E89" s="3">
         <v>137300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>411000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3273,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,29 +3290,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-93800</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-126200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,29 +3393,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-713400</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-124900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3428,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,17 +3445,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,29 +3583,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-166900</v>
+      </c>
+      <c r="E100" s="3">
         <v>561500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>-272100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3372,8 +3618,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,29 +3653,32 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14600</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>14000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3434,6 +3686,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>CRGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,192 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>684800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>865000</v>
+      </c>
+      <c r="F8" s="3">
         <v>908400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>598900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>463300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>365700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>648000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>754200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>311400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>255100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>283300</v>
+      </c>
+      <c r="F9" s="3">
         <v>255700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>219200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
         <v>8700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>286000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>491300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>216500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>429700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>581700</v>
+      </c>
+      <c r="F10" s="3">
         <v>652700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>379700</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
         <v>357000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>362000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>262900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>94900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +864,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>12100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,78 +942,96 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2200</v>
       </c>
       <c r="G14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>247200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>234000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>145000</v>
+      </c>
+      <c r="F15" s="3">
         <v>131600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>99000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>300300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>160100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>372300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>147800</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1042,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>580800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>447400</v>
+      </c>
+      <c r="F17" s="3">
         <v>408600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>336100</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
         <v>924000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>459500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1127800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>601500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>417600</v>
+      </c>
+      <c r="F18" s="3">
         <v>499800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>262800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-558300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>188500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-373600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-290100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1141,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>203300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-175200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-674000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>-114400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-602800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>195600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>365800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>765900</v>
+      </c>
+      <c r="F21" s="3">
         <v>456200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-312200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>194300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>223600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F22" s="3">
         <v>24900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>16500</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>47300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>24800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>38100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>21200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>593800</v>
+      </c>
+      <c r="F23" s="3">
         <v>299700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-427700</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
         <v>-720000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-439100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-216100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>54600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F24" s="3">
         <v>17800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-21700</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
         <v>-41900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>555300</v>
+      </c>
+      <c r="F26" s="3">
         <v>281900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-406000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
         <v>-678100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-439100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-216100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>54600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F27" s="3">
         <v>54500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-85000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
         <v>-676600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-425200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>46700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>84600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1506,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1547,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1629,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-203300</v>
+      </c>
+      <c r="F32" s="3">
         <v>175200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>674000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>114400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>602800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-195600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-365800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F33" s="3">
         <v>54500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-85000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3">
         <v>-676600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-425200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>46700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>84600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F35" s="3">
         <v>54500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-85000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3">
         <v>-676600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-425200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>46700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>84600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,32 +1877,34 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F41" s="3">
         <v>54600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>112500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>128600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>66600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>74500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1914,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,32 +1955,38 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>459800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>520100</v>
+      </c>
+      <c r="F43" s="3">
         <v>596200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>513300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>342200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>279100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>160300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1996,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,32 +2037,38 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>37900</v>
+      </c>
+      <c r="F45" s="3">
         <v>22300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>23200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>21300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>16700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,32 +2078,38 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>516700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>580500</v>
+      </c>
+      <c r="F46" s="3">
         <v>673000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>649100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>479600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>367000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>251500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,29 +2119,35 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F47" s="3">
         <v>15600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>20100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>15400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>4900</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,32 +2160,38 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5437800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5507400</v>
+      </c>
+      <c r="F48" s="3">
         <v>5463000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5387700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4557400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4566900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3486700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,29 +2201,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>76800</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>76800</v>
       </c>
       <c r="F49" s="3">
+        <v>76800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>76800</v>
+      </c>
+      <c r="H49" s="3">
         <v>76600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>106500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2242,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,32 +2324,38 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>50400</v>
+      </c>
+      <c r="F52" s="3">
         <v>45200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>40800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>28500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>23200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>22300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2365,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,32 +2406,38 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6019800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6229600</v>
+      </c>
+      <c r="F54" s="3">
         <v>6273700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6174500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5157500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5068500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3760500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2447,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,32 +2485,34 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>138900</v>
+      </c>
+      <c r="F57" s="3">
         <v>148000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>87300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>359300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>34400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,26 +2522,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,38 +2557,44 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>786100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>898500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1140500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1132100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>527200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>430100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>337400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,32 +2604,38 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>893700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1039900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1290600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1233900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>616100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>789400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>371800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,32 +2645,38 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1255000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1377400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1519900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1630400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1033900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>883500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>836100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2401,32 +2686,38 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>572100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>543400</v>
+      </c>
+      <c r="F62" s="3">
         <v>674500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>702200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>487800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>577900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>198100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2727,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,32 +2850,38 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5171700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5384700</v>
+      </c>
+      <c r="F66" s="3">
         <v>5658400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5756100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4475300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4469300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1422800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2891,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,29 +3072,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>61400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-49900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-104400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-19400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-39300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +3113,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,32 +3236,38 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>848100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>844900</v>
+      </c>
+      <c r="F76" s="3">
         <v>615300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>418400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>682200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>599300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2337700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3277,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F81" s="3">
         <v>54500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-85000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3">
         <v>-676600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-425200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>46700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>84600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3426,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>145000</v>
+      </c>
+      <c r="F83" s="3">
         <v>131600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>99000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>372300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>398900</v>
+      </c>
+      <c r="F89" s="3">
         <v>261200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>137300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>411000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3730,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-152300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-146500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-93800</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-126200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3849,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-196900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-150600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-713400</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-124900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,23 +3911,25 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3481,8 +3948,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +4071,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-236500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-166900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>561500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-272100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +4153,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-56400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-14600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>14000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>590100</v>
+      </c>
+      <c r="E8" s="3">
         <v>684800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>865000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>908400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>598900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>463300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>365700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>648000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>754200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>311400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>271800</v>
+      </c>
+      <c r="E9" s="3">
         <v>255100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>283300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>255700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>219200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
         <v>8700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>286000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>491300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>216500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>318300</v>
+      </c>
+      <c r="E10" s="3">
         <v>429700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>581700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>652700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>379700</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
         <v>357000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>362000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>262900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>94900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
         <v>-400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,90 +965,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3">
         <v>144000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>247200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>234000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E15" s="3">
         <v>157300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>145000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>131600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>99000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>300300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>160100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>372300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>147800</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>439600</v>
+      </c>
+      <c r="E17" s="3">
         <v>580800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>447400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>408600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>336100</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
         <v>924000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>459500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1127800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>601500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E18" s="3">
         <v>104000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>417600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>499800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>262800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-558300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>188500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-373600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-290100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,204 +1176,217 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-25400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>203300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-175200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-674000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>-114400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-602800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>195600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>365800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>447800</v>
+      </c>
+      <c r="E21" s="3">
         <v>235900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>765900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>456200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-312200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>194300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>223600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E22" s="3">
         <v>27400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>47300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E23" s="3">
         <v>51100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>593800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>299700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-427700</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
         <v>-720000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-439100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-216100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-21700</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <v>-41900</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>255600</v>
+      </c>
+      <c r="E26" s="3">
         <v>49400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>555300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>281900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-406000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
         <v>-678100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-439100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-216100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>54600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E27" s="3">
         <v>8800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>118400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>54500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-85000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
         <v>-676600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-425200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>46700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-150800</v>
+      </c>
+      <c r="E32" s="3">
         <v>25400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-203300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>175200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>674000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>114400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>602800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-195600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-365800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E33" s="3">
         <v>8800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>118400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>54500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-85000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3">
         <v>-676600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-425200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>46700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>84600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E35" s="3">
         <v>8800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>118400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>54500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-85000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3">
         <v>-676600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-425200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>46700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>84600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,35 +1965,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>22500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>128600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>74500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,35 +2051,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>470400</v>
+      </c>
+      <c r="E43" s="3">
         <v>459800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>520100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>596200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>513300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>342200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>279100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>160300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,35 +2139,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E45" s="3">
         <v>57000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,35 +2183,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E46" s="3">
         <v>516700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>580500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>673000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>649100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>479600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>367000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>251500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,32 +2227,35 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E47" s="3">
         <v>15000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>14500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>15600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4900</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,35 +2271,38 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5504800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5437800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5507400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5463000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5387700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4557400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4566900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3486700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,16 +2315,19 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>76800</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>76800</v>
@@ -2225,14 +2336,14 @@
         <v>76800</v>
       </c>
       <c r="H49" s="3">
+        <v>76800</v>
+      </c>
+      <c r="I49" s="3">
         <v>76600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>106500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,35 +2447,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E52" s="3">
         <v>50300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>45200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>40800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,35 +2535,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6111700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6019800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6229600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6273700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6174500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5157500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5068500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3760500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,35 +2617,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E57" s="3">
         <v>104300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>138900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>148000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>87300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>359300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,29 +2659,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2563,41 +2697,44 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>689500</v>
+      </c>
+      <c r="E59" s="3">
         <v>786100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>898500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1140500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1132100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>527200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>430100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>337400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,35 +2747,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>786100</v>
+      </c>
+      <c r="E60" s="3">
         <v>893700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1039900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1290600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1233900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>616100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>789400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>371800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,35 +2791,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1251700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1255000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1377400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1519900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1630400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1033900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>883500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>836100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2692,35 +2835,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>550200</v>
+      </c>
+      <c r="E62" s="3">
         <v>572100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>543400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>674500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>702200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>487800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>577900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>198100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,35 +3011,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5210200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5171700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5384700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5658400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5756100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4475300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4469300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1422800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3249,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E72" s="3">
         <v>62000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>61400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-104400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-39300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,35 +3425,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>901500</v>
+      </c>
+      <c r="E76" s="3">
         <v>848100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>844900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>615300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>418400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>682200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>599300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2337700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E81" s="3">
         <v>8800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>118400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>54500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-85000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3">
         <v>-676600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-425200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>46700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>84600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,38 +3626,39 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E83" s="3">
         <v>157300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>131600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>99000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>372300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3888,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>240100</v>
+      </c>
+      <c r="E89" s="3">
         <v>215000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>398900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>261200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>137300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>411000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,38 +3952,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-152300</v>
+        <v>-201800</v>
       </c>
       <c r="E91" s="3">
-        <v>-200000</v>
+        <v>-151400</v>
       </c>
       <c r="F91" s="3">
-        <v>-146500</v>
+        <v>-200200</v>
       </c>
       <c r="G91" s="3">
-        <v>-93800</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-714200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-126200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,38 +4082,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-195100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-196900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-150600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-713400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-124900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3922,17 +4156,17 @@
         <v>-8200</v>
       </c>
       <c r="E96" s="3">
-        <v>-7100</v>
+        <v>-8200</v>
       </c>
       <c r="F96" s="3">
         <v>-7100</v>
       </c>
       <c r="G96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,38 +4320,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-166000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-236500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-166900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>561500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>-272100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,8 +4364,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,38 +4408,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-56400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>14000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>CRGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>492300</v>
+      </c>
+      <c r="E8" s="3">
         <v>590100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>684800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>865000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>908400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>598900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>463300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>365700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>648000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>754200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>311400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>225700</v>
+      </c>
+      <c r="E9" s="3">
         <v>271800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>255100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>283300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>255700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>219200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
         <v>8700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>286000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>491300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>216500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>266600</v>
+      </c>
+      <c r="E10" s="3">
         <v>318300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>429700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>581700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>652700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>379700</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
         <v>357000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>362000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>262900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>94900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
         <v>-400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,96 +985,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>144000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>247200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>234000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E15" s="3">
         <v>146500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>157300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>145000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>131600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>99000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>300300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>160100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>372300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>147800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>428300</v>
+      </c>
+      <c r="E17" s="3">
         <v>439600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>580800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>447400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>408600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>336100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
         <v>924000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>459500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1127800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>601500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E18" s="3">
         <v>150500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>417600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>499800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>262800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-558300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>188500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-373600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-290100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,219 +1210,232 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E20" s="3">
         <v>150800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-25400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>203300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-175200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-674000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>-114400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-602800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>195600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>365800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>257700</v>
+      </c>
+      <c r="E21" s="3">
         <v>447800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>235900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>765900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>456200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-312200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>194300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>223600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E22" s="3">
         <v>29300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>47300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E23" s="3">
         <v>272000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>51100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>593800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>299700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-427700</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
         <v>-720000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-439100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-216100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E24" s="3">
         <v>16400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-21700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>-41900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E26" s="3">
         <v>255600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>555300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>281900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-406000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
         <v>-678100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-439100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-216100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>54600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>59800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>118400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>54500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-85000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
         <v>-676600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-425200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>84600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-150800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>25400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-203300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>175200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>674000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>114400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>602800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-195600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-365800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>59800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>118400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>54500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-85000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
         <v>-676600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-425200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>84600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>59800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>118400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>54500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-85000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
         <v>-676600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-425200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>84600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2052,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>22500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>112500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>128600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>66600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,38 +2144,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>439900</v>
+      </c>
+      <c r="E43" s="3">
         <v>470400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>459800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>520100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>596200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>513300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>342200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>279100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>160300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,38 +2238,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E45" s="3">
         <v>66700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>57000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2285,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>596900</v>
+      </c>
+      <c r="E46" s="3">
         <v>540000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>516700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>580500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>673000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>649100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>479600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>367000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>251500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,35 +2332,38 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E47" s="3">
         <v>12600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>15000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>14500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>15600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>15400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2274,38 +2379,41 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5483100</v>
+      </c>
+      <c r="E48" s="3">
         <v>5504800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5437800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5507400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5463000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5387700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4557400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4566900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3486700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,19 +2426,22 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
-        <v>76800</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>76800</v>
@@ -2339,14 +2450,14 @@
         <v>76800</v>
       </c>
       <c r="I49" s="3">
+        <v>76800</v>
+      </c>
+      <c r="J49" s="3">
         <v>76600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>106500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,38 +2567,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E52" s="3">
         <v>54200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>45200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>40800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2661,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6148300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6111700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6019800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6229600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6273700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6174500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5157500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5068500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3760500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2748,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E57" s="3">
         <v>93100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>104300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>138900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>148000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>87300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>359300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,32 +2793,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2700,44 +2834,47 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>609800</v>
+      </c>
+      <c r="E59" s="3">
         <v>689500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>786100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>898500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1140500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1132100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>527200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>430100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>337400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +2887,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>672400</v>
+      </c>
+      <c r="E60" s="3">
         <v>786100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>893700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1039900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1290600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1233900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>616100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>789400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>371800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,38 +2934,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1339200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1251700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1255000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1377400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1519900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1630400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1033900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>883500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>836100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,38 +2981,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>619200</v>
+      </c>
+      <c r="E62" s="3">
         <v>550200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>572100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>543400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>674500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>702200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>487800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>577900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>198100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3169,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4690400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5210200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5171700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5384700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5658400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5756100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4475300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4469300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1422800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,35 +3423,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E72" s="3">
         <v>113500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>62000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>61400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-104400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3611,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1457900</v>
+      </c>
+      <c r="E76" s="3">
         <v>901500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>848100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>844900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>615300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>418400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>682200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>599300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2337700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>59800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>118400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>54500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-85000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3">
         <v>-676600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-425200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>84600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,41 +3825,42 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E83" s="3">
         <v>146500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>157300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>145000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>131600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>99000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>372300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,41 +4105,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E89" s="3">
         <v>240100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>215000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>398900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>261200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>137300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>411000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,41 +4173,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-196400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-201800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-151400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-153600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-714200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-161100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-109600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-126200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,41 +4312,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-195100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-63400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-196900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-150600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-713400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-124900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,29 +4380,30 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8200</v>
+        <v>-5800</v>
       </c>
       <c r="E96" s="3">
         <v>-8200</v>
       </c>
       <c r="F96" s="3">
-        <v>-7100</v>
+        <v>-8200</v>
       </c>
       <c r="G96" s="3">
         <v>-7100</v>
       </c>
       <c r="H96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,41 +4566,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-43700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-166000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-236500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-166900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>561500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-272100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4367,8 +4613,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,41 +4660,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-56400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>14000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>CRGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>642400</v>
+      </c>
+      <c r="E8" s="3">
         <v>492300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>590100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>684800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>865000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>908400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>598900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>463300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>365700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>648000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>754200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>311400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>270500</v>
+      </c>
+      <c r="E9" s="3">
         <v>225700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>271800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>255100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>283300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>255700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>219200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
         <v>8700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>286000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>491300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>216500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>371900</v>
+      </c>
+      <c r="E10" s="3">
         <v>266600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>318300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>429700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>581700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>652700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>379700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
         <v>357000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>362000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>262900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>94900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
         <v>-400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,102 +1005,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>144000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>-2700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>247200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>234000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E15" s="3">
         <v>159900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>146500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>157300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>145000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>131600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>99000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>300300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>160100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>372300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>147800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500900</v>
+      </c>
+      <c r="E17" s="3">
         <v>428300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>439600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>580800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>447400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>408600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>336100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>924000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>459500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1127800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>601500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E18" s="3">
         <v>64000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>150500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>104000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>417600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>499800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>262800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-558300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>188500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-373600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-290100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,234 +1244,247 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-251100</v>
+      </c>
+      <c r="E20" s="3">
         <v>33800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>150800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-25400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>203300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-175200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-674000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>-114400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-602800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>195600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>365800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E21" s="3">
         <v>257700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>447800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>235900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>765900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>456200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-312200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>194300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>223600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E22" s="3">
         <v>31100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>47300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-151700</v>
+      </c>
+      <c r="E23" s="3">
         <v>66700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>272000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>593800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>299700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-427700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
         <v>-720000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-439100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-216100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>54600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E24" s="3">
         <v>9200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-21700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>-41900</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-131100</v>
+      </c>
+      <c r="E26" s="3">
         <v>57500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>255600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>49400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>555300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>281900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-406000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>-678100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-439100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-216100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>54600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E27" s="3">
         <v>5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>59800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>118400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>54500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-85000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>-676600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-425200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>84600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-33800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-150800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>25400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-203300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>175200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>674000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>114400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>602800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-195600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-365800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E33" s="3">
         <v>5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>59800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>118400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>54500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-85000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>-676600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-425200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>84600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E35" s="3">
         <v>5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>59800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>118400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>54500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-85000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>-676600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-425200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>84600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2139,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>228600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>22500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>112500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>128600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,41 +2237,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>579100</v>
+      </c>
+      <c r="E43" s="3">
         <v>439900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>470400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>459800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>520100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>596200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>513300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>342200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>279100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>160300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,41 +2337,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E45" s="3">
         <v>154800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>66700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>57000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,41 +2387,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>903100</v>
+      </c>
+      <c r="E46" s="3">
         <v>596900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>540000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>516700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>580500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>673000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>649100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>479600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>367000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>251500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,38 +2437,41 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E47" s="3">
         <v>12700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>15000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>15400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,41 +2487,44 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6013500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5483100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5504800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5437800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5507400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5463000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5387700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4557400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4566900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3486700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2440,11 +2551,11 @@
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G49" s="3">
-        <v>76800</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>76800</v>
@@ -2453,14 +2564,14 @@
         <v>76800</v>
       </c>
       <c r="J49" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K49" s="3">
         <v>76600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>106500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,41 +2687,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E52" s="3">
         <v>55500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>50400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>45200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>40800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2787,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6986400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6148300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6111700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6019800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6229600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6273700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6174500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5157500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5068500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3760500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +2879,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E57" s="3">
         <v>58700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>93100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>104300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>138900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>148000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>87300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>359300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,35 +2927,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,47 +2971,50 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>770900</v>
+      </c>
+      <c r="E59" s="3">
         <v>609800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>689500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>786100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>898500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1140500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1132100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>527200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>430100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>337400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,41 +3027,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>880800</v>
+      </c>
+      <c r="E60" s="3">
         <v>672400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>786100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>893700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1039900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1290600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1233900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>616100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>789400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>371800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,41 +3077,44 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1919900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1339200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1251700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1255000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1377400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1519900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1630400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1033900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>883500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>836100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,41 +3127,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>669700</v>
+      </c>
+      <c r="E62" s="3">
         <v>619200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>550200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>572100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>543400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>674500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>702200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>487800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>577900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>198100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3327,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5384700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4690400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5210200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5171700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5384700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5658400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5756100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4475300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4469300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1422800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E72" s="3">
         <v>112900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>113500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>62000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>61400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-49900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-104400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3797,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1601700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1457900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>901500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>848100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>844900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>615300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>418400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>682200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>599300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2337700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E81" s="3">
         <v>5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>59800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>118400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>54500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-85000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>-676600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-425200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>84600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,44 +4024,45 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E83" s="3">
         <v>159900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>146500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>157300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>145000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>131600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>99000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>372300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,44 +4322,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>189300</v>
+      </c>
+      <c r="E89" s="3">
         <v>183500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>240100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>215000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>398900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>261200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>137300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>411000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,44 +4394,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-695700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-196400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-201800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-151400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-153600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-714200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-161100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-109600</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-126200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,44 +4542,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-691300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-179800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-195100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-63400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-196900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-150600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-713400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-124900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,32 +4614,33 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5800</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-8200</v>
       </c>
       <c r="F96" s="3">
         <v>-8200</v>
       </c>
       <c r="G96" s="3">
-        <v>-7100</v>
+        <v>-8200</v>
       </c>
       <c r="H96" s="3">
         <v>-7100</v>
       </c>
       <c r="I96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,44 +4812,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>693300</v>
+      </c>
+      <c r="E100" s="3">
         <v>55700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-43700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-166000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-236500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-166900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>561500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>-272100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,44 +4912,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>191400</v>
+      </c>
+      <c r="E102" s="3">
         <v>59400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-56400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>14000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
